--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3521.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3521.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.56247562903653</v>
+        <v>1.799369692802429</v>
       </c>
       <c r="B1">
-        <v>2.574804190170555</v>
+        <v>2.312338590621948</v>
       </c>
       <c r="C1">
-        <v>2.992192770842552</v>
+        <v>1.99890124797821</v>
       </c>
       <c r="D1">
-        <v>3.587331018125378</v>
+        <v>1.663317203521729</v>
       </c>
       <c r="E1">
-        <v>1.951349688842479</v>
+        <v>1.575534820556641</v>
       </c>
     </row>
   </sheetData>
